--- a/app/api/uploads/products.xlsx
+++ b/app/api/uploads/products.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>hp printer 1</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t xml:space="preserve">Samsung Monitor </t>
+  </si>
+  <si>
+    <t>partnumber</t>
+  </si>
+  <si>
+    <t>product description</t>
+  </si>
+  <si>
+    <t>QWERTY</t>
+  </si>
+  <si>
+    <t>holo holo</t>
+  </si>
+  <si>
+    <t>WASD</t>
+  </si>
+  <si>
+    <t>heu heu heu</t>
   </si>
 </sst>
 </file>
@@ -411,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -438,8 +456,14 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -458,8 +482,14 @@
       <c r="F2">
         <v>18</v>
       </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -477,6 +507,12 @@
       </c>
       <c r="F3">
         <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
